--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>S.No</t>
   </si>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="AE5" sqref="A3:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -987,6 +987,190 @@
         <v>57</v>
       </c>
     </row>
+    <row r="4" spans="1:31" ht="30" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2000000234161</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="17">
+        <v>8905721839644</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18">
+        <v>39249090</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>25</v>
+      </c>
+      <c r="R4" s="18">
+        <v>18</v>
+      </c>
+      <c r="S4" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="T4" s="16">
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="18">
+        <v>2</v>
+      </c>
+      <c r="W4" s="22">
+        <v>130</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="30" customHeight="1">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2000000234161</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="17">
+        <v>8905721839644</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="18">
+        <v>39249090</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>25</v>
+      </c>
+      <c r="R5" s="18">
+        <v>18</v>
+      </c>
+      <c r="S5" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>2</v>
+      </c>
+      <c r="W5" s="22">
+        <v>130</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
